--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/个人资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/个人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,375 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>40.24663</v>
-      </c>
-      <c r="C2" t="n">
-        <v>62.92729</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.231719999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>4.85321</v>
-      </c>
-      <c r="G2" t="n">
-        <v>88.85889</v>
-      </c>
-      <c r="H2" t="n">
-        <v>34.61643</v>
-      </c>
-      <c r="I2" t="n">
-        <v>56.54607</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8.00934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13.51003</v>
-      </c>
-      <c r="L2" t="n">
-        <v>925.66345</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.39566</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.37187</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50.37658</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15.20735</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.54247</v>
-      </c>
-      <c r="R2" t="n">
-        <v>22.99077</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.46845</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>10.89566</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="n">
-        <v>1.69899</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.80732</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>25.37786</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>59.86094</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>75.72642</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.99722</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.4676</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>68.03485999999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.32425</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>26.96211</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>20.09414</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>62.18649</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.59061</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>14.54653</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>27.90984</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>35.10878</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>42.98066</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.88941</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>44.5724</v>
-      </c>
-      <c r="C3" t="n">
-        <v>66.24244</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.91957</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>5.65998</v>
-      </c>
-      <c r="G3" t="n">
-        <v>131.77689</v>
-      </c>
-      <c r="H3" t="n">
-        <v>36.22071</v>
-      </c>
-      <c r="I3" t="n">
-        <v>80.65885</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13.91564</v>
-      </c>
-      <c r="K3" t="n">
-        <v>15.98537</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1188.09317</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.99449</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.03135</v>
-      </c>
-      <c r="O3" t="n">
-        <v>66.08174</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.08026</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.27744</v>
-      </c>
-      <c r="R3" t="n">
-        <v>29.32736</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.65963</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10.55665</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.14779</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.45136</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.47822</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>31.95184</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>67.59202999999999</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>89.69147</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.170730000000001</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>17.04317</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4.81969</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>90.18606</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.44215</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>35.17952</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>28.04074</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>84.31137</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.61747</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18.14367</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>34.99768</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>38.19587</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>70.82023</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>2.49034</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>53.13989</v>
-      </c>
-      <c r="C4" t="n">
-        <v>69.26106</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.81331</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>5.3827</v>
-      </c>
-      <c r="G4" t="n">
-        <v>138.24811</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43.96284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86.65149</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.58617</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.98024</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1432.35619</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.57874</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.52525</v>
-      </c>
-      <c r="O4" t="n">
-        <v>77.96588</v>
-      </c>
-      <c r="P4" t="n">
-        <v>51.94867</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.88027</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27.15666</v>
-      </c>
-      <c r="S4" t="n">
-        <v>8.26871</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>13.75649</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1478</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.78731</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.35154</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>39.7524</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>78.7171</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>110.26046</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>14.50516</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>18.58461</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.75418</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>109.31183</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.99222</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>36.85391</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>37.72168</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>103.42142</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3.77055</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>28.86196</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>48.90294</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>48.03432</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>84.64962</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.32592</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
